--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H2">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I2">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J2">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N2">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O2">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P2">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q2">
-        <v>65.46037545643237</v>
+        <v>71.7191445686385</v>
       </c>
       <c r="R2">
-        <v>65.46037545643237</v>
+        <v>286.876578274554</v>
       </c>
       <c r="S2">
-        <v>0.03447321337018588</v>
+        <v>0.02954963087127747</v>
       </c>
       <c r="T2">
-        <v>0.03447321337018588</v>
+        <v>0.01882887123749347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H3">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I3">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J3">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N3">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P3">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q3">
-        <v>151.720679330458</v>
+        <v>176.7593293499477</v>
       </c>
       <c r="R3">
-        <v>151.720679330458</v>
+        <v>1060.555976099686</v>
       </c>
       <c r="S3">
-        <v>0.0799002345275195</v>
+        <v>0.07282815441763534</v>
       </c>
       <c r="T3">
-        <v>0.0799002345275195</v>
+        <v>0.06960858231871365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H4">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I4">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J4">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N4">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O4">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P4">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q4">
-        <v>34.73832045241871</v>
+        <v>39.80794559104</v>
       </c>
       <c r="R4">
-        <v>34.73832045241871</v>
+        <v>238.84767354624</v>
       </c>
       <c r="S4">
-        <v>0.01829414397225929</v>
+        <v>0.01640161919155836</v>
       </c>
       <c r="T4">
-        <v>0.01829414397225929</v>
+        <v>0.0156765397775798</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H5">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I5">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J5">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N5">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O5">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P5">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q5">
-        <v>36.82543565522866</v>
+        <v>40.77335605444233</v>
       </c>
       <c r="R5">
-        <v>36.82543565522866</v>
+        <v>244.640136326654</v>
       </c>
       <c r="S5">
-        <v>0.01939327557993717</v>
+        <v>0.01679938638474491</v>
       </c>
       <c r="T5">
-        <v>0.01939327557993717</v>
+        <v>0.0160567225603513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H6">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I6">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J6">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N6">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O6">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P6">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q6">
-        <v>61.19710565770767</v>
+        <v>70.92823569138966</v>
       </c>
       <c r="R6">
-        <v>61.19710565770767</v>
+        <v>425.569414148338</v>
       </c>
       <c r="S6">
-        <v>0.03222805958972946</v>
+        <v>0.0292237616000238</v>
       </c>
       <c r="T6">
-        <v>0.03222805958972946</v>
+        <v>0.02793184354682936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H7">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I7">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J7">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N7">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O7">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P7">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q7">
-        <v>93.45028764820755</v>
+        <v>117.161115076315</v>
       </c>
       <c r="R7">
-        <v>93.45028764820755</v>
+        <v>468.6444603052599</v>
       </c>
       <c r="S7">
-        <v>0.0492134620851055</v>
+        <v>0.04827257385451682</v>
       </c>
       <c r="T7">
-        <v>0.0492134620851055</v>
+        <v>0.03075903321325642</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H8">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I8">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J8">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N8">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O8">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P8">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q8">
-        <v>19.92937102479588</v>
+        <v>21.787320042398</v>
       </c>
       <c r="R8">
-        <v>19.92937102479588</v>
+        <v>130.723920254388</v>
       </c>
       <c r="S8">
-        <v>0.01049534859647492</v>
+        <v>0.008976783936834236</v>
       </c>
       <c r="T8">
-        <v>0.01049534859647492</v>
+        <v>0.008579940115482623</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H9">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I9">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J9">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N9">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P9">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q9">
-        <v>46.19126745649695</v>
+        <v>53.69712790343245</v>
       </c>
       <c r="R9">
-        <v>46.19126745649695</v>
+        <v>483.2741511308919</v>
       </c>
       <c r="S9">
-        <v>0.02432557723300794</v>
+        <v>0.02212422245047317</v>
       </c>
       <c r="T9">
-        <v>0.02432557723300794</v>
+        <v>0.03171923904970688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H10">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I10">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J10">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N10">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O10">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P10">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q10">
-        <v>10.57606028451947</v>
+        <v>12.09312319658667</v>
       </c>
       <c r="R10">
-        <v>10.57606028451947</v>
+        <v>108.83810876928</v>
       </c>
       <c r="S10">
-        <v>0.005569640874529426</v>
+        <v>0.004982593262779667</v>
       </c>
       <c r="T10">
-        <v>0.005569640874529426</v>
+        <v>0.007143485704112832</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H11">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I11">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J11">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N11">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O11">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P11">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q11">
-        <v>11.21148122364891</v>
+        <v>12.38640202562089</v>
       </c>
       <c r="R11">
-        <v>11.21148122364891</v>
+        <v>111.477618230588</v>
       </c>
       <c r="S11">
-        <v>0.005904270816104874</v>
+        <v>0.005103429633492758</v>
       </c>
       <c r="T11">
-        <v>0.005904270816104874</v>
+        <v>0.007316727395979186</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H12">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I12">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J12">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N12">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O12">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P12">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q12">
-        <v>18.6314211580992</v>
+        <v>21.54705246898178</v>
       </c>
       <c r="R12">
-        <v>18.6314211580992</v>
+        <v>193.923472220836</v>
       </c>
       <c r="S12">
-        <v>0.009811812909634574</v>
+        <v>0.008877789196343541</v>
       </c>
       <c r="T12">
-        <v>0.009811812909634574</v>
+        <v>0.01272798257123398</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H13">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I13">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J13">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N13">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O13">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P13">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q13">
-        <v>28.45088256718854</v>
+        <v>35.59198490228666</v>
       </c>
       <c r="R13">
-        <v>28.45088256718854</v>
+        <v>213.55190941372</v>
       </c>
       <c r="S13">
-        <v>0.01498300824689841</v>
+        <v>0.0146645644222945</v>
       </c>
       <c r="T13">
-        <v>0.01498300824689841</v>
+        <v>0.01401627636893933</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H14">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I14">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J14">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N14">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O14">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P14">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q14">
-        <v>97.44237022363855</v>
+        <v>106.9822305447045</v>
       </c>
       <c r="R14">
-        <v>97.44237022363855</v>
+        <v>641.8933832682269</v>
       </c>
       <c r="S14">
-        <v>0.05131580130107637</v>
+        <v>0.04407868277564896</v>
       </c>
       <c r="T14">
-        <v>0.05131580130107637</v>
+        <v>0.04213006141682824</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H15">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I15">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J15">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N15">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O15">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P15">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q15">
-        <v>225.8468959705256</v>
+        <v>263.6688911612103</v>
       </c>
       <c r="R15">
-        <v>225.8468959705256</v>
+        <v>2373.020020450893</v>
       </c>
       <c r="S15">
-        <v>0.1189371154610611</v>
+        <v>0.1086365217113842</v>
       </c>
       <c r="T15">
-        <v>0.1189371154610611</v>
+        <v>0.1557509109938629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H16">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I16">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J16">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N16">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O16">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P16">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q16">
-        <v>51.71043182795185</v>
+        <v>59.38083671167999</v>
       </c>
       <c r="R16">
-        <v>51.71043182795185</v>
+        <v>534.42753040512</v>
       </c>
       <c r="S16">
-        <v>0.02723211923915521</v>
+        <v>0.02446601693608371</v>
       </c>
       <c r="T16">
-        <v>0.02723211923915521</v>
+        <v>0.03507664242334625</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H17">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I17">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J17">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N17">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O17">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P17">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q17">
-        <v>54.81724951534732</v>
+        <v>60.82092311241966</v>
       </c>
       <c r="R17">
-        <v>54.81724951534732</v>
+        <v>547.388308011777</v>
       </c>
       <c r="S17">
-        <v>0.02886825389761182</v>
+        <v>0.02505935950619591</v>
       </c>
       <c r="T17">
-        <v>0.02886825389761182</v>
+        <v>0.03592731072872453</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H18">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I18">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J18">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N18">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O18">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P18">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q18">
-        <v>91.09619345343233</v>
+        <v>105.8024451979243</v>
       </c>
       <c r="R18">
-        <v>91.09619345343233</v>
+        <v>952.2220067813189</v>
       </c>
       <c r="S18">
-        <v>0.04797373208196774</v>
+        <v>0.04359258911524101</v>
       </c>
       <c r="T18">
-        <v>0.04797373208196774</v>
+        <v>0.06249818532774734</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H19">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I19">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J19">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N19">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O19">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P19">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q19">
-        <v>139.1073219948568</v>
+        <v>174.767246588855</v>
       </c>
       <c r="R19">
-        <v>139.1073219948568</v>
+        <v>1048.60347953313</v>
       </c>
       <c r="S19">
-        <v>0.07325769763840591</v>
+        <v>0.07200737900809334</v>
       </c>
       <c r="T19">
-        <v>0.07325769763840591</v>
+        <v>0.06882409157997206</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H20">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I20">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J20">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N20">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O20">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P20">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q20">
-        <v>97.50923526932421</v>
+        <v>136.1021862266842</v>
       </c>
       <c r="R20">
-        <v>97.50923526932421</v>
+        <v>544.408744906737</v>
       </c>
       <c r="S20">
-        <v>0.05135101425197768</v>
+        <v>0.05607664993721959</v>
       </c>
       <c r="T20">
-        <v>0.05135101425197768</v>
+        <v>0.03573174993953005</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H21">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I21">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J21">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N21">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O21">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P21">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q21">
-        <v>226.0018723220078</v>
+        <v>335.4380661563305</v>
       </c>
       <c r="R21">
-        <v>226.0018723220078</v>
+        <v>2012.628396937983</v>
       </c>
       <c r="S21">
-        <v>0.1190187302210548</v>
+        <v>0.1382067660554486</v>
       </c>
       <c r="T21">
-        <v>0.1190187302210548</v>
+        <v>0.1320969497154293</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H22">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I22">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J22">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N22">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O22">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P22">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q22">
-        <v>51.74591557469022</v>
+        <v>75.54396328512</v>
       </c>
       <c r="R22">
-        <v>51.74591557469022</v>
+        <v>453.26377971072</v>
       </c>
       <c r="S22">
-        <v>0.02725080594487536</v>
+        <v>0.03112552782182482</v>
       </c>
       <c r="T22">
-        <v>0.02725080594487536</v>
+        <v>0.02974953687792839</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H23">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I23">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J23">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N23">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O23">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P23">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q23">
-        <v>54.85486516329178</v>
+        <v>77.37603302696451</v>
       </c>
       <c r="R23">
-        <v>54.85486516329178</v>
+        <v>464.256198161787</v>
       </c>
       <c r="S23">
-        <v>0.02888806332046657</v>
+        <v>0.03188037487037167</v>
       </c>
       <c r="T23">
-        <v>0.02888806332046657</v>
+        <v>0.03047101380312269</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H24">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I24">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J24">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N24">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O24">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P24">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q24">
-        <v>91.15870374667615</v>
+        <v>134.6012700076315</v>
       </c>
       <c r="R24">
-        <v>91.15870374667615</v>
+        <v>807.607620045789</v>
       </c>
       <c r="S24">
-        <v>0.04800665170184162</v>
+        <v>0.05545824434261192</v>
       </c>
       <c r="T24">
-        <v>0.04800665170184162</v>
+        <v>0.05300655766225555</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H25">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I25">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J25">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N25">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O25">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P25">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q25">
-        <v>139.20277756946</v>
+        <v>222.3378987375075</v>
       </c>
       <c r="R25">
-        <v>139.20277756946</v>
+        <v>889.3515949500299</v>
       </c>
       <c r="S25">
-        <v>0.07330796713911875</v>
+        <v>0.09160737869790156</v>
       </c>
       <c r="T25">
-        <v>0.07330796713911875</v>
+        <v>0.05837174567157369</v>
       </c>
     </row>
   </sheetData>
